--- a/MyTool/CableSpecification.xlsx
+++ b/MyTool/CableSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Revit\MyTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DEC4CA-36ED-4F79-AF96-FED50BC58621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9B943-E8FC-4FFB-BEFF-1EAA5A33A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="330" windowWidth="21600" windowHeight="10875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单芯" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1854,7 +1854,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
